--- a/SampleApp/模版/05自动初始化填充配置/Sample03.xlsx
+++ b/SampleApp/模版/05自动初始化填充配置/Sample03.xlsx
@@ -1,87 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\child\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA519CEF-E2D5-40C6-8DAE-5BFD24E19AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="2805" yWindow="7770" windowWidth="15885" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
     <sheet name="b" sheetId="2" r:id="rId2"/>
-    <sheet name="c" sheetId="6" r:id="rId3"/>
+    <sheet name="c" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>入司时间</t>
+  </si>
+  <si>
+    <t>this is b worksheet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工号</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>入司时间</t>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一级部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二级部门</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户籍性质</t>
-    </r>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一级部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>户籍性质</t>
   </si>
   <si>
     <t>第一次合同签订</t>
@@ -101,95 +87,33 @@
   </si>
   <si>
     <t>签约公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>this is b worksheet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,19 +134,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,6 +201,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -264,6 +223,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -288,128 +269,74 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11" xfId="2"/>
-    <cellStyle name="常规 12" xfId="4"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="3"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{4A034268-CCE6-4BE9-A58D-7A8333E7589B}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -611,7 +538,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -691,99 +618,55 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="隐藏格式使用"/>
-      <sheetName val="岗位名称&amp;岗位大类"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="岗位名称&amp;岗位大类"/>
-      <sheetName val="在职员工"/>
-      <sheetName val="隐藏格式使用"/>
-      <sheetName val="离职"/>
-      <sheetName val="实习生"/>
-      <sheetName val="车补"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -816,9 +699,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -857,262 +740,231 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="4" width="7.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="16" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="2" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
+      <c r="N2" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2">
@@ -1146,173 +998,90 @@
     <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'H:\9月份月报\[12月25日入职信息.xlsx]隐藏格式使用'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E3F37F-DC7C-4C61-9831-B7C1E112C320}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C8">
-    <cfRule type="duplicateValues" dxfId="5" priority="132"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D8 F3:G8">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A325FB9B-41F6-4E18-8F88-B8BC4AB8136B}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1332,6 +1101,5 @@
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SampleApp/模版/05自动初始化填充配置/Sample03.xlsx
+++ b/SampleApp/模版/05自动初始化填充配置/Sample03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\child\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02我的\代码项目\EpplusHelper\EpplusHelper\SampleApp\模版\05自动初始化填充配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA519CEF-E2D5-40C6-8DAE-5BFD24E19AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFA136-6AC6-41DB-A980-7EC30EEBCFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="7770" windowWidth="15885" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10125" yWindow="3120" windowWidth="18675" windowHeight="9990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -276,40 +276,13 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +292,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -326,17 +326,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{4A034268-CCE6-4BE9-A58D-7A8333E7589B}"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -883,73 +873,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="7" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1005,43 +995,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E3F37F-DC7C-4C61-9831-B7C1E112C320}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1068,20 +1058,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
